--- a/medicine/Mort/Baron_Samedi/Baron_Samedi.xlsx
+++ b/medicine/Mort/Baron_Samedi/Baron_Samedi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dans le vaudou, Baron Samedi (ou Baron Samdi, Bawon Samedi, Bawon Sanmdi) est l'un des aspects du lwa Baron.
@@ -512,7 +524,9 @@
           <t>Attributs et représentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le lwa des morts, avec ses autres incarnations Baron La Croix (symbole de l'individualité et de l'importance des petits plaisirs de la vie, puisque nous allons tous à la tombe), Baron Cimetière (protecteur des cimetières qui garde les morts dedans et les vivants dehors) et Baron Kriminel (vengeur, juge et punisseur des morts). C'est l'un des Guédés ou leur père spirituel. Sa femme est Maman Brigitte.
 Il est représenté vêtu d'un chapeau haut de forme blanc, d'un costume de soirée, de lunettes de soleil dont un verre est cassé, avec du coton dans les narines.
